--- a/biology/Botanique/Miconia_coriacea/Miconia_coriacea.xlsx
+++ b/biology/Botanique/Miconia_coriacea/Miconia_coriacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Miconia coriacea, est une espèce d’arbustes des forêts d'altitude des Petites Antilles et d'Amérique Centrale. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Melastoma coriaceum Sw. (basionyme)</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Guadeloupe : Bois côtelette-montagne.</t>
         </is>
@@ -571,13 +587,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Arbuste ne dépassant pas 1,8 mètre de haut
 Branches nue dans le bas, avec des feuilles confinées à leur extrémité. Rameaux quadrangulaires, grisâtres, très rugueux, portant de nombreuses cicatrices et une faible couche de poils rigides et courts.
 Feuilles très rigides, épaisses, souvent roulées en forme de cuillère, entièrement glabres, vert jaunâtre en dessous, longues de 7-12 cm. sur 4-5 cm. de large, finement crénelées-dentées, à dents glanduliformes ; avec trois nervures larges, rougeâtres ou jaunâtres, très saillantes en dessous ; nervilles transversales très rapprochées, avec un arc près du bord ; pétioles larges, comprimés, longs de 1-2 cm. et caractérisé par ses feuilles épaisses marquées par trois fortes rainures longitudinales et ses
 Fleurs blanches en épis pyramidaux.
-Baies petites, noirâtres, globuleuses, couronnées par les bords lacérés du calice[1].</t>
+Baies petites, noirâtres, globuleuses, couronnées par les bords lacérés du calice.</t>
         </is>
       </c>
     </row>
@@ -605,9 +623,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maquis d'altitude du Costa Rica[2], de la Guadeloupe et de la Dominique
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maquis d'altitude du Costa Rica, de la Guadeloupe et de la Dominique
 			Miconia coriacea  à la Soufrière (Guadeloupe)
 			Infructescence de Miconia coriacea photographiées à la Soufrière
 </t>
